--- a/biology/Botanique/Begonia_peridoticola/Begonia_peridoticola.xlsx
+++ b/biology/Botanique/Begonia_peridoticola/Begonia_peridoticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia peridoticola est une espèce de plantes de la famille des Begoniaceae. Ce bégonia à port de bambou, originaire de l'île de Borneo, en Asie tropicale, a été décrit en 2015.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace et monoïque. Les tiges sont bambusiformes. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Malaisie, état du Sabah[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Malaisie, état du Sabah.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia peridoticola fait partie de la section Baryandra du genre Begonia, famille des Begoniaceae[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia peridoticola fait partie de la section Baryandra du genre Begonia, famille des Begoniaceae.
 L'espèce a été décrite en 2015 par les botanistes Ching I Peng, Repin Rimi et Che Wei Lin. L'épithète spécifique peridoticola est une référence à la péridotite présente dans les falaises de Bat Cave où elle a été collectée.
 Publication originale : (en) Two new species of Begonia, B. moneta and B. peridoticola (Begoniaceae) from Sabah, Malaysia. Ching-I Peng, Che-Wei Lin, Rimi Repin, Yoshiko Kono, Wai-Chao Leong and Kuo-Fang Chung, Botanical Studies An International Journal 201556:7. DOI 10.1186/s40529-015-0087-5.
 </t>
